--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf21</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H2">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I2">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J2">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N2">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O2">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P2">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q2">
-        <v>34.16352015297014</v>
+        <v>37.96220892938</v>
       </c>
       <c r="R2">
-        <v>34.16352015297014</v>
+        <v>341.65988036442</v>
       </c>
       <c r="S2">
-        <v>0.003335093664182372</v>
+        <v>0.003436223164934779</v>
       </c>
       <c r="T2">
-        <v>0.003335093664182372</v>
+        <v>0.00343622316493478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H3">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I3">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J3">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N3">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O3">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P3">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q3">
-        <v>13.75552302741949</v>
+        <v>13.88200411554</v>
       </c>
       <c r="R3">
-        <v>13.75552302741949</v>
+        <v>124.93803703986</v>
       </c>
       <c r="S3">
-        <v>0.001342834622745193</v>
+        <v>0.001256556598333793</v>
       </c>
       <c r="T3">
-        <v>0.001342834622745193</v>
+        <v>0.001256556598333794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H4">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I4">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J4">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N4">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O4">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P4">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q4">
-        <v>159.1091419397886</v>
+        <v>159.742207158584</v>
       </c>
       <c r="R4">
-        <v>159.1091419397886</v>
+        <v>1437.679864427256</v>
       </c>
       <c r="S4">
-        <v>0.01553247115112489</v>
+        <v>0.01445937652567209</v>
       </c>
       <c r="T4">
-        <v>0.01553247115112489</v>
+        <v>0.0144593765256721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H5">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I5">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J5">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N5">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O5">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P5">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q5">
-        <v>190.4125589612074</v>
+        <v>191.499089686348</v>
       </c>
       <c r="R5">
-        <v>190.4125589612074</v>
+        <v>1723.491807177132</v>
       </c>
       <c r="S5">
-        <v>0.01858835729248073</v>
+        <v>0.01733391250409777</v>
       </c>
       <c r="T5">
-        <v>0.01858835729248073</v>
+        <v>0.01733391250409777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H6">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I6">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J6">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.65974409581267</v>
+        <v>4.057317666666666</v>
       </c>
       <c r="N6">
-        <v>3.65974409581267</v>
+        <v>12.171953</v>
       </c>
       <c r="O6">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="P6">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="Q6">
-        <v>22.02680330672163</v>
+        <v>24.479891058916</v>
       </c>
       <c r="R6">
-        <v>22.02680330672163</v>
+        <v>220.319019530244</v>
       </c>
       <c r="S6">
-        <v>0.002150289309225412</v>
+        <v>0.002215844944328975</v>
       </c>
       <c r="T6">
-        <v>0.002150289309225412</v>
+        <v>0.002215844944328975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H7">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I7">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J7">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N7">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O7">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P7">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q7">
-        <v>357.5449113183853</v>
+        <v>2.230029787391111</v>
       </c>
       <c r="R7">
-        <v>357.5449113183853</v>
+        <v>20.07026808652</v>
       </c>
       <c r="S7">
-        <v>0.03490406618109946</v>
+        <v>0.0002018554828614676</v>
       </c>
       <c r="T7">
-        <v>0.03490406618109946</v>
+        <v>0.0002018554828614676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H8">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I8">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J8">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N8">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O8">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P8">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q8">
-        <v>143.961080092302</v>
+        <v>0.8154763265733334</v>
       </c>
       <c r="R8">
-        <v>143.961080092302</v>
+        <v>7.33928693916</v>
       </c>
       <c r="S8">
-        <v>0.01405369481701218</v>
+        <v>7.381442552618531E-05</v>
       </c>
       <c r="T8">
-        <v>0.01405369481701218</v>
+        <v>7.381442552618531E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H9">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I9">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J9">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N9">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O9">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P9">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q9">
-        <v>1665.187421848865</v>
+        <v>9.383802742615112</v>
       </c>
       <c r="R9">
-        <v>1665.187421848865</v>
+        <v>84.45422468353601</v>
       </c>
       <c r="S9">
-        <v>0.162558073506998</v>
+        <v>0.0008493931535790424</v>
       </c>
       <c r="T9">
-        <v>0.162558073506998</v>
+        <v>0.0008493931535790424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H10">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I10">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J10">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N10">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O10">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P10">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q10">
-        <v>1992.799372045179</v>
+        <v>11.24931046697689</v>
       </c>
       <c r="R10">
-        <v>1992.799372045179</v>
+        <v>101.243794202792</v>
       </c>
       <c r="S10">
-        <v>0.1945400394905346</v>
+        <v>0.001018253213032948</v>
       </c>
       <c r="T10">
-        <v>0.1945400394905346</v>
+        <v>0.001018253213032948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H11">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I11">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J11">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.65974409581267</v>
+        <v>4.057317666666666</v>
       </c>
       <c r="N11">
-        <v>3.65974409581267</v>
+        <v>12.171953</v>
       </c>
       <c r="O11">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="P11">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="Q11">
-        <v>230.5257596309087</v>
+        <v>1.438032395718222</v>
       </c>
       <c r="R11">
-        <v>230.5257596309087</v>
+        <v>12.942291561464</v>
       </c>
       <c r="S11">
-        <v>0.02250426762035618</v>
+        <v>0.0001301662987864051</v>
       </c>
       <c r="T11">
-        <v>0.02250426762035618</v>
+        <v>0.0001301662987864051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H12">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I12">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J12">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N12">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O12">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P12">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q12">
-        <v>442.5850004146963</v>
+        <v>411.7528859321139</v>
       </c>
       <c r="R12">
-        <v>442.5850004146963</v>
+        <v>3705.775973389025</v>
       </c>
       <c r="S12">
-        <v>0.04320580619725391</v>
+        <v>0.03727061319062672</v>
       </c>
       <c r="T12">
-        <v>0.04320580619725391</v>
+        <v>0.03727061319062672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H13">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I13">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J13">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N13">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O13">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P13">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q13">
-        <v>178.2014305766889</v>
+        <v>150.5696169505917</v>
       </c>
       <c r="R13">
-        <v>178.2014305766889</v>
+        <v>1355.126552555325</v>
       </c>
       <c r="S13">
-        <v>0.01739628877245193</v>
+        <v>0.01362910168540157</v>
       </c>
       <c r="T13">
-        <v>0.01739628877245193</v>
+        <v>0.01362910168540157</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H14">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I14">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J14">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N14">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O14">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P14">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q14">
-        <v>2061.243084321951</v>
+        <v>1732.626121021319</v>
       </c>
       <c r="R14">
-        <v>2061.243084321951</v>
+        <v>15593.63508919187</v>
       </c>
       <c r="S14">
-        <v>0.2012216165102709</v>
+        <v>0.156832022717646</v>
       </c>
       <c r="T14">
-        <v>0.2012216165102709</v>
+        <v>0.156832022717646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H15">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I15">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J15">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N15">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O15">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P15">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q15">
-        <v>2466.775733573892</v>
+        <v>2077.073622833946</v>
       </c>
       <c r="R15">
-        <v>2466.775733573892</v>
+        <v>18693.66260550551</v>
       </c>
       <c r="S15">
-        <v>0.2408103170623027</v>
+        <v>0.1880103581784269</v>
       </c>
       <c r="T15">
-        <v>0.2408103170623027</v>
+        <v>0.1880103581784269</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>65.44186166666667</v>
+      </c>
+      <c r="H16">
+        <v>196.325585</v>
+      </c>
+      <c r="I16">
+        <v>0.4197760120361104</v>
+      </c>
+      <c r="J16">
+        <v>0.4197760120361104</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.057317666666666</v>
+      </c>
+      <c r="N16">
+        <v>12.171953</v>
+      </c>
+      <c r="O16">
+        <v>0.0572541440551436</v>
+      </c>
+      <c r="P16">
+        <v>0.0572541440551436</v>
+      </c>
+      <c r="Q16">
+        <v>265.5184214797227</v>
+      </c>
+      <c r="R16">
+        <v>2389.665793317505</v>
+      </c>
+      <c r="S16">
+        <v>0.02403391626400916</v>
+      </c>
+      <c r="T16">
+        <v>0.02403391626400916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H17">
+        <v>251.799084</v>
+      </c>
+      <c r="I17">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J17">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.291888333333334</v>
+      </c>
+      <c r="N17">
+        <v>18.875665</v>
+      </c>
+      <c r="O17">
+        <v>0.08878690568774233</v>
+      </c>
+      <c r="P17">
+        <v>0.08878690568774233</v>
+      </c>
+      <c r="Q17">
+        <v>528.09723965454</v>
+      </c>
+      <c r="R17">
+        <v>4752.87515689086</v>
+      </c>
+      <c r="S17">
+        <v>0.04780174861833787</v>
+      </c>
+      <c r="T17">
+        <v>0.04780174861833788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H18">
+        <v>251.799084</v>
+      </c>
+      <c r="I18">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J18">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.300815</v>
+      </c>
+      <c r="N18">
+        <v>6.902445</v>
+      </c>
+      <c r="O18">
+        <v>0.03246755720817405</v>
+      </c>
+      <c r="P18">
+        <v>0.03246755720817405</v>
+      </c>
+      <c r="Q18">
+        <v>193.11436981782</v>
+      </c>
+      <c r="R18">
+        <v>1738.02932836038</v>
+      </c>
+      <c r="S18">
+        <v>0.01748012272637298</v>
+      </c>
+      <c r="T18">
+        <v>0.01748012272637299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H19">
+        <v>251.799084</v>
+      </c>
+      <c r="I19">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J19">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>26.47580733333334</v>
+      </c>
+      <c r="N19">
+        <v>79.42742200000001</v>
+      </c>
+      <c r="O19">
+        <v>0.3736088252326215</v>
+      </c>
+      <c r="P19">
+        <v>0.3736088252326215</v>
+      </c>
+      <c r="Q19">
+        <v>2222.194678231272</v>
+      </c>
+      <c r="R19">
+        <v>19999.75210408145</v>
+      </c>
+      <c r="S19">
+        <v>0.2011462727192202</v>
+      </c>
+      <c r="T19">
+        <v>0.2011462727192202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H20">
+        <v>251.799084</v>
+      </c>
+      <c r="I20">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J20">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.73921966666667</v>
+      </c>
+      <c r="N20">
+        <v>95.217659</v>
+      </c>
+      <c r="O20">
+        <v>0.4478825678163185</v>
+      </c>
+      <c r="P20">
+        <v>0.4478825678163185</v>
+      </c>
+      <c r="Q20">
+        <v>2663.968812980484</v>
+      </c>
+      <c r="R20">
+        <v>23975.71931682435</v>
+      </c>
+      <c r="S20">
+        <v>0.2411343176277295</v>
+      </c>
+      <c r="T20">
+        <v>0.2411343176277295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>77.9713103398975</v>
-      </c>
-      <c r="H16">
-        <v>77.9713103398975</v>
-      </c>
-      <c r="I16">
-        <v>0.530490812344241</v>
-      </c>
-      <c r="J16">
-        <v>0.530490812344241</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.65974409581267</v>
-      </c>
-      <c r="N16">
-        <v>3.65974409581267</v>
-      </c>
-      <c r="O16">
-        <v>0.05251134073154316</v>
-      </c>
-      <c r="P16">
-        <v>0.05251134073154316</v>
-      </c>
-      <c r="Q16">
-        <v>285.3550426592172</v>
-      </c>
-      <c r="R16">
-        <v>285.3550426592172</v>
-      </c>
-      <c r="S16">
-        <v>0.02785678380196156</v>
-      </c>
-      <c r="T16">
-        <v>0.02785678380196156</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H21">
+        <v>251.799084</v>
+      </c>
+      <c r="I21">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J21">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.057317666666666</v>
+      </c>
+      <c r="N21">
+        <v>12.171953</v>
+      </c>
+      <c r="O21">
+        <v>0.0572541440551436</v>
+      </c>
+      <c r="P21">
+        <v>0.0572541440551436</v>
+      </c>
+      <c r="Q21">
+        <v>340.5429573212279</v>
+      </c>
+      <c r="R21">
+        <v>3064.886615891051</v>
+      </c>
+      <c r="S21">
+        <v>0.0308249080231199</v>
+      </c>
+      <c r="T21">
+        <v>0.0308249080231199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.134262</v>
+      </c>
+      <c r="H22">
+        <v>0.402786</v>
+      </c>
+      <c r="I22">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J22">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.291888333333334</v>
+      </c>
+      <c r="N22">
+        <v>18.875665</v>
+      </c>
+      <c r="O22">
+        <v>0.08878690568774233</v>
+      </c>
+      <c r="P22">
+        <v>0.08878690568774233</v>
+      </c>
+      <c r="Q22">
+        <v>0.84476151141</v>
+      </c>
+      <c r="R22">
+        <v>7.60285360269</v>
+      </c>
+      <c r="S22">
+        <v>7.6465230981483E-05</v>
+      </c>
+      <c r="T22">
+        <v>7.646523098148301E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.134262</v>
+      </c>
+      <c r="H23">
+        <v>0.402786</v>
+      </c>
+      <c r="I23">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J23">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.300815</v>
+      </c>
+      <c r="N23">
+        <v>6.902445</v>
+      </c>
+      <c r="O23">
+        <v>0.03246755720817405</v>
+      </c>
+      <c r="P23">
+        <v>0.03246755720817405</v>
+      </c>
+      <c r="Q23">
+        <v>0.30891202353</v>
+      </c>
+      <c r="R23">
+        <v>2.78020821177</v>
+      </c>
+      <c r="S23">
+        <v>2.79617725395096E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.79617725395096E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.134262</v>
+      </c>
+      <c r="H24">
+        <v>0.402786</v>
+      </c>
+      <c r="I24">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J24">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>26.47580733333334</v>
+      </c>
+      <c r="N24">
+        <v>79.42742200000001</v>
+      </c>
+      <c r="O24">
+        <v>0.3736088252326215</v>
+      </c>
+      <c r="P24">
+        <v>0.3736088252326215</v>
+      </c>
+      <c r="Q24">
+        <v>3.554694844188</v>
+      </c>
+      <c r="R24">
+        <v>31.992253597692</v>
+      </c>
+      <c r="S24">
+        <v>0.0003217601165041721</v>
+      </c>
+      <c r="T24">
+        <v>0.0003217601165041722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.134262</v>
+      </c>
+      <c r="H25">
+        <v>0.402786</v>
+      </c>
+      <c r="I25">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J25">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.73921966666667</v>
+      </c>
+      <c r="N25">
+        <v>95.217659</v>
+      </c>
+      <c r="O25">
+        <v>0.4478825678163185</v>
+      </c>
+      <c r="P25">
+        <v>0.4478825678163185</v>
+      </c>
+      <c r="Q25">
+        <v>4.261371110886</v>
+      </c>
+      <c r="R25">
+        <v>38.352339997974</v>
+      </c>
+      <c r="S25">
+        <v>0.0003857262930313228</v>
+      </c>
+      <c r="T25">
+        <v>0.0003857262930313228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.134262</v>
+      </c>
+      <c r="H26">
+        <v>0.402786</v>
+      </c>
+      <c r="I26">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J26">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.057317666666666</v>
+      </c>
+      <c r="N26">
+        <v>12.171953</v>
+      </c>
+      <c r="O26">
+        <v>0.0572541440551436</v>
+      </c>
+      <c r="P26">
+        <v>0.0572541440551436</v>
+      </c>
+      <c r="Q26">
+        <v>0.5447435845619999</v>
+      </c>
+      <c r="R26">
+        <v>4.902692261057999</v>
+      </c>
+      <c r="S26">
+        <v>4.930852489916275E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.930852489916275E-05</v>
       </c>
     </row>
   </sheetData>
